--- a/文案匹配剪辑素材生成自动化剪辑脚本/inputData2_2.xlsx
+++ b/文案匹配剪辑素材生成自动化剪辑脚本/inputData2_2.xlsx
@@ -59,10 +59,10 @@
     <t>Ba2</t>
   </si>
   <si>
-    <t>速惟我服了！刚买的速惟，小冰纱防晒外套居然降价了！这外套太绝了，原纱型防晒UPF50+。有效阻隔紫外线。宽松版型藏肉显瘦。软帽檐能随意折叠。还有后开马尾孔。袖子防晒至手背。冰川白的颜色简约百搭，现在入手太划算了！</t>
-  </si>
-  <si>
-    <t>速惟我无语了！我刚买的速惟，小冰纱防晒外套就降价了！它可是防晒好手，UPF50+硬核防晒。宽松款式不挑身材，出汗不粘身。软帽檐好折叠，后开马尾孔很贴心。袖子能护到手背。冰川白简约又百搭，快冲！</t>
+    <t>速惟我服了！刚买的速惟，小冰纱防晒外套居然降价了！这外套太绝了，原纱型防晒UPF50+。有效阻隔紫外线。宽松版型藏肉显瘦。软帽檐能随意折叠。还有后开马尾孔。袖子防晒至手背。海默绿的颜色简约百搭，现在入手太划算了！</t>
+  </si>
+  <si>
+    <t>速惟我无语了！我刚买的速惟，小冰纱防晒外套就降价了！它可是防晒好手，UPF50+硬核防晒。宽松款式不挑身材，出汗不粘身。软帽檐好折叠，后开马尾孔很贴心。袖子能护到手背。海默绿简约又百搭，快冲！</t>
   </si>
   <si>
     <t>速惟我跟你急！我才买的速惟，小冰纱防晒外套就降价了！它软帽檐设计，防晒不影响造型。还能折叠不变形，帽子有马尾孔。透气又护发型。加长袖子能防晒到手背。这外套防晒力高又百搭。冰感十足，快入手吧！</t>
@@ -71,7 +71,7 @@
     <t>Ba3</t>
   </si>
   <si>
-    <t>你买的那些防晒外套，不防晒还不百搭。真不如花一百来块，拿下这件速惟小冰纱防晒外套。它是原纱型防晒UPF50+，有效阻隔紫外线。而且有后开马尾孔、软帽檐设计。袖子能防晒到手背。宽松版型藏肉显瘦。简约风很百搭，运动休闲都能穿。颜色是冰川白，快看看有没有你的码！</t>
+    <t>你买的那些防晒外套，不防晒还不百搭。真不如花一百来块，拿下这件速惟小冰纱防晒外套。它是原纱型防晒UPF50+，有效阻隔紫外线。而且有后开马尾孔、软帽檐设计。袖子能防晒到手背。宽松版型藏肉显瘦。简约风很百搭，运动休闲都能穿。颜色是海默绿，快看看有没有你的码！</t>
   </si>
   <si>
     <t>Bc1</t>
@@ -80,7 +80,7 @@
     <t>还没挑到满意防晒外套的姐妹们，今年选速惟准没错。宽松版型很藏肉。加长袖子能防晒到手背。两侧插袋方便置物。后开马尾孔，橡皮筋固定，发型不乱。面料水洗防晒力不减。水柔原纱越穿越凉快，一件能穿好多场合，轻松过夏天。</t>
   </si>
   <si>
-    <t>别再为找不到好的，防晒外套发愁了！一百来块的速惟，小冰纱防晒外套了解一下。这款防晒外套防晒值高，UPF50+硬核物理防晒。它设计贴心，后开马尾孔。软帽檐可随意折叠。袖子防晒又固定。宽松版型，简约百搭。冰川白颜色好看，运动日常都能穿。赶紧入手吧！</t>
+    <t>别再为找不到好的，防晒外套发愁了！一百来块的速惟，小冰纱防晒外套了解一下。这款防晒外套防晒值高，UPF50+硬核物理防晒。它设计贴心，后开马尾孔。软帽檐可随意折叠。袖子防晒又固定。宽松版型，简约百搭。海默绿颜色好看，运动日常都能穿。赶紧入手吧！</t>
   </si>
   <si>
     <t>你几十块买的防晒外套，不防晒还不舒适。真不如花一百来块，拿下这件速惟，小冰纱防晒外套啊！它采用水柔原纱面料。水洗也不减防晒力，越穿越凉快。而且设计很贴心。软帽檐随意折叠。帽子有马尾孔。袖子加长至手背。还是宽松版型，藏肉显瘦。赶紧看看有没有自己的码数吧！</t>
@@ -95,7 +95,7 @@
     <t>终于把速惟家的这款，小冰纱防晒外套价格谈妥了！它是原纱型防晒。UPF50+，能有效阻隔紫外线。宽松版型，藏肉显瘦，各种身材都能穿。软帽檐可随意折叠。后开马尾孔。袖子加长能防晒至手背。运动日常都合适，快下单吧！</t>
   </si>
   <si>
-    <t>速惟家的小冰纱防晒外套，价格被我拿下啦！这款外套防晒值高，是硬核物理防晒。它款式简约百搭，宽松版型不挑人，出汗不粘身。而且设计很贴心，有后开马尾孔、软帽檐和加长袖子。冰川白的颜色也很清新，赶紧入手吧！</t>
+    <t>速惟家的小冰纱防晒外套，价格被我拿下啦！这款外套防晒值高，是硬核物理防晒。它款式简约百搭，宽松版型不挑人，出汗不粘身。而且设计很贴心，有后开马尾孔、软帽檐和加长袖子。海默绿的颜色也很清新，赶紧入手吧！</t>
   </si>
   <si>
     <t>终于把速惟家的这款，小冰纱防晒外套价格谈妥了！它低领短帽檐，穿戴方便不勒脖。面料水洗后防晒力依旧，还是净色的。宽松版型藏肉显瘦，一体式冰感包裹。让你清凉又防晒，快去入手！</t>
@@ -107,10 +107,10 @@
     <t>Ba5</t>
   </si>
   <si>
-    <t>这款速惟小冰纱防晒外套太赞了！原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，软帽檐可随意折叠。加长袖子防晒至手背。宽松版型藏肉显瘦，简约百搭。冰川白颜色清新。运动休闲都能穿，快入手吧！</t>
-  </si>
-  <si>
-    <t>速惟的小冰纱防晒外套真是绝了！它防晒值高，UPF50+硬核物理防晒。有后开马尾孔，帽檐软能折叠。袖子加长护到手背。宽松款式不挑身材，简约风好搭配，冰川白很亮眼。出汗透气不粘身，赶紧安排！</t>
+    <t>这款速惟小冰纱防晒外套太赞了！原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，软帽檐可随意折叠。加长袖子防晒至手背。宽松版型藏肉显瘦，简约百搭。海默绿颜色清新。运动休闲都能穿，快入手吧！</t>
+  </si>
+  <si>
+    <t>速惟的小冰纱防晒外套真是绝了！它防晒值高，UPF50+硬核物理防晒。有后开马尾孔，帽檐软能折叠。袖子加长护到手背。宽松款式不挑身材，简约风好搭配，海默绿很亮眼。出汗透气不粘身，赶紧安排！</t>
   </si>
   <si>
     <t>这款速惟小冰纱防晒外套太赞了！低领短帽檐设计，穿戴方便不勒脖。软帽檐随意折叠。水洗防晒力不减，面料越穿越凉快。宽松版型藏肉显瘦。加长袖子防晒至手背。帽子有马尾孔。运动时也清爽。喜欢的赶紧入手！</t>
@@ -122,10 +122,10 @@
     <t>Ba6</t>
   </si>
   <si>
-    <t>这真的很划算啦！用普通外套的价格，买到防晒力超强的外套！它是速惟小冰纱防晒外套。原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，软帽檐可随意折叠。宽松版型藏肉显瘦。加长袖子防晒至手背。冰川白的颜色简约又百搭，运动休闲都能穿！</t>
-  </si>
-  <si>
-    <t>这件真不贵哟！花普通外套的钱，拥有高防晒值的外套！速惟小冰纱防晒外套，UPF50+硬核物理防晒。有后开马尾孔。软帽檐随意折。宽松款包容身材。袖子加长防晒到手背。出汗不粘身。冰川白很百搭，日常运动都能穿！</t>
+    <t>这真的很划算啦！用普通外套的价格，买到防晒力超强的外套！它是速惟小冰纱防晒外套。原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，软帽檐可随意折叠。宽松版型藏肉显瘦。加长袖子防晒至手背。海默绿的颜色简约又百搭，运动休闲都能穿！</t>
+  </si>
+  <si>
+    <t>这件真不贵哟！花普通外套的钱，拥有高防晒值的外套！速惟小冰纱防晒外套，UPF50+硬核物理防晒。有后开马尾孔。软帽檐随意折。宽松款包容身材。袖子加长防晒到手背。出汗不粘身。海默绿很百搭，日常运动都能穿！</t>
   </si>
   <si>
     <t>这小冰纱防晒外套真不贵啦！价格实惠，防晒力却超强。低领短帽檐设计，穿戴方便不勒脖。软帽檐随意折叠。宽松版型藏肉显瘦，水柔原纱越穿越凉快。一体式冰感包裹，让你清凉又防晒！</t>
@@ -137,52 +137,52 @@
     <t>Bb1</t>
   </si>
   <si>
-    <t>你们只知道防晒很重要，却不知道速惟，小冰纱防晒外套有多棒。它低领短帽檐设计，穿戴方便不勒脖。宽松H型裁剪，各种身材都能穿。面料水洗防晒力不减，吸湿速干不闷汗。还很清凉。冰川白的颜色，简约又时尚。</t>
-  </si>
-  <si>
-    <t>你们都晓得要防晒，那速惟小冰纱防晒外套可得了解一下。软帽檐设计，防晒不影响造型。帽子后有马尾孔，清爽透气。加长袖子能防晒到手背。这外套吸湿速干，穿着清凉不闷汗。宽松版型藏肉显瘦，冰川白很耐看。</t>
-  </si>
-  <si>
-    <t>你们只知道防晒外套很重要。但不知道速惟，小冰纱防晒外套，现在下单优惠多多。它低领短帽檐设计，穿戴方便不勒脖。立体宽松H裁剪，各种身材都能穿。面料水洗防晒力不减，上身清凉不闷汗。简约百搭，运动休闲都合适，冰川白颜色很清新。</t>
+    <t>你们只知道防晒很重要，却不知道速惟，小冰纱防晒外套有多棒。它低领短帽檐设计，穿戴方便不勒脖。宽松H型裁剪，各种身材都能穿。面料水洗防晒力不减，吸湿速干不闷汗。还很清凉。海默绿的颜色，简约又时尚。</t>
+  </si>
+  <si>
+    <t>你们都晓得要防晒，那速惟小冰纱防晒外套可得了解一下。软帽檐设计，防晒不影响造型。帽子后有马尾孔，清爽透气。加长袖子能防晒到手背。这外套吸湿速干，穿着清凉不闷汗。宽松版型藏肉显瘦，海默绿很耐看。</t>
+  </si>
+  <si>
+    <t>你们只知道防晒外套很重要。但不知道速惟，小冰纱防晒外套，现在下单优惠多多。它低领短帽檐设计，穿戴方便不勒脖。立体宽松H裁剪，各种身材都能穿。面料水洗防晒力不减，上身清凉不闷汗。简约百搭，运动休闲都合适，海默绿颜色很清新。</t>
   </si>
   <si>
     <t>Bb4</t>
   </si>
   <si>
-    <t>不是兜里钱不够，而是活动价更香。速惟小冰纱防晒外套，升级款省不少。低领短帽檐，方便不勒脖。立体宽松H型，各种身材都能穿。水洗防晒力不减，吸湿速干不闷汗。冰川白超清爽，运动休闲都合适。</t>
-  </si>
-  <si>
-    <t>不是付不起全款，而是活动更划算。速惟小冰纱防晒外套来袭！软帽檐防晒不影响造型。自带马尾孔，清爽透气。加长袖子至手背，固定不跑位。宽松版型藏肉显瘦，吸湿速干很凉快，冰川白颜色好看。防晒又清凉，选它就对了！</t>
-  </si>
-  <si>
-    <t>不是兜里钱不够，而是活动价更香。速惟小冰纱防晒外套全新升级，能省不少钱呢！低领短帽檐设计，穿戴方便不勒脖。立体宽松H型裁剪，各种身材都能穿。面料防晒力强，水洗也不怕。简约百搭，运动休闲都合适。冰川白的颜色很清爽，让你轻松享受清凉防晒。</t>
-  </si>
-  <si>
-    <t>不是付不起全款，而是活动太诱人。速惟小冰纱防晒外套来袭！原纱型硬核物理防晒。高倍抗光老，宽松版型藏肉显瘦。不挑身材，低领短帽檐。穿戴舒适，下摆带抽绳可调节。满足不同场景需求，水洗后防晒力依旧。颜色是冰川白，简约又时尚，快来入手吧！</t>
+    <t>不是兜里钱不够，而是活动价更香。速惟小冰纱防晒外套，升级款省不少。低领短帽檐，方便不勒脖。立体宽松H型，各种身材都能穿。水洗防晒力不减，吸湿速干不闷汗。海默绿超清爽，运动休闲都合适。</t>
+  </si>
+  <si>
+    <t>不是付不起全款，而是活动更划算。速惟小冰纱防晒外套来袭！软帽檐防晒不影响造型。自带马尾孔，清爽透气。加长袖子至手背，固定不跑位。宽松版型藏肉显瘦，吸湿速干很凉快，海默绿颜色好看。防晒又清凉，选它就对了！</t>
+  </si>
+  <si>
+    <t>不是兜里钱不够，而是活动价更香。速惟小冰纱防晒外套全新升级，能省不少钱呢！低领短帽檐设计，穿戴方便不勒脖。立体宽松H型裁剪，各种身材都能穿。面料防晒力强，水洗也不怕。简约百搭，运动休闲都合适。海默绿的颜色很清爽，让你轻松享受清凉防晒。</t>
+  </si>
+  <si>
+    <t>不是付不起全款，而是活动太诱人。速惟小冰纱防晒外套来袭！原纱型硬核物理防晒。高倍抗光老，宽松版型藏肉显瘦。不挑身材，低领短帽檐。穿戴舒适，下摆带抽绳可调节。满足不同场景需求，水洗后防晒力依旧。颜色是海默绿，简约又时尚，快来入手吧！</t>
   </si>
   <si>
     <t>Bb5</t>
   </si>
   <si>
-    <t>看我这防晒外套咋样。速惟家的，现在优惠力度可大了！这外套是小冰纱面料的。防晒力强，软帽檐设计。还有马尾孔呢，宽松版型。各种身材都能穿，颜色是冰川白，特好看！</t>
-  </si>
-  <si>
-    <t>我这件速惟的。小冰纱防晒外套不错吧！它低领短帽檐，穿戴方便不勒脖。H型裁剪，宽松藏肉。面料吸湿速干，不闷汗还清凉。加长袖子能防晒到手背。动起来也不跑位，有它，不怕晒啦。颜色是冰川白哟！</t>
-  </si>
-  <si>
-    <t>看我这防晒外套咋样？速惟家的，可划算了。这小冰纱防晒外套，是低领短帽檐设计。穿戴方便，不勒脖子。面料水洗后防晒力也不减。还是原纱型，硬核物理防晒呢！宽松版型，藏肉显瘦。下摆有抽绳可调节。颜色是冰川白，简约又百搭。运动、休闲都能穿，可太值了！</t>
-  </si>
-  <si>
-    <t>宝，我买了件速惟的。小冰纱防晒外套，特好。它低领短帽檐，好穿戴不勒脖。立体宽松H裁剪，啥身材都能穿。面料厉害，水洗防晒力不变。还是高倍抗光老的原纱型。简约风格，啥场合都能搭。下摆带抽绳能调节。颜色是冰川白。穿着不闷汗还清凉，太喜欢了！</t>
+    <t>看我这防晒外套咋样。速惟家的，现在优惠力度可大了！这外套是小冰纱面料的。防晒力强，软帽檐设计。还有马尾孔呢，宽松版型。各种身材都能穿，颜色是海默绿，特好看！</t>
+  </si>
+  <si>
+    <t>我这件速惟的。小冰纱防晒外套不错吧！它低领短帽檐，穿戴方便不勒脖。H型裁剪，宽松藏肉。面料吸湿速干，不闷汗还清凉。加长袖子能防晒到手背。动起来也不跑位，有它，不怕晒啦。颜色是海默绿哟！</t>
+  </si>
+  <si>
+    <t>看我这防晒外套咋样？速惟家的，可划算了。这小冰纱防晒外套，是低领短帽檐设计。穿戴方便，不勒脖子。面料水洗后防晒力也不减。还是原纱型，硬核物理防晒呢！宽松版型，藏肉显瘦。下摆有抽绳可调节。颜色是海默绿，简约又百搭。运动、休闲都能穿，可太值了！</t>
+  </si>
+  <si>
+    <t>宝，我买了件速惟的。小冰纱防晒外套，特好。它低领短帽檐，好穿戴不勒脖。立体宽松H裁剪，啥身材都能穿。面料厉害，水洗防晒力不变。还是高倍抗光老的原纱型。简约风格，啥场合都能搭。下摆带抽绳能调节。颜色是海默绿。穿着不闷汗还清凉，太喜欢了！</t>
   </si>
   <si>
     <t>还在为找不到，合适的防晒外套。烦恼的姐妹看过来，速惟是个好选择。这款外套宽松显瘦，能包容不同身材。袖子加长，手背也能防晒。且动起来不跑位，有插袋。方便又贴心，面料防晒力强。还凉快，日常和运动都能穿。</t>
   </si>
   <si>
-    <t>还没挑到满意防晒外套的，姐妹们看过来。今年选速惟准没错！这款小冰纱防晒外套。软帽檐随意折叠，下脚可调节扣防风。宽松版型藏肉显瘦。吸湿速干不闷汗。还防晒，冰川白简约又百搭。一件能穿好几个场合。</t>
-  </si>
-  <si>
-    <t>姐妹们，要是还没找到。合适的防晒外套。那速惟的小冰纱防晒外套，可别错过！它有软帽檐，能随意折。下脚调节扣能防风，宽松款不挑身材。吸湿速干很凉快，防晒力也强，冰川白的颜色简约好搭。运动休闲都能穿。</t>
+    <t>还没挑到满意防晒外套的，姐妹们看过来。今年选速惟准没错！这款小冰纱防晒外套。软帽檐随意折叠，下脚可调节扣防风。宽松版型藏肉显瘦。吸湿速干不闷汗。还防晒，海默绿简约又百搭。一件能穿好几个场合。</t>
+  </si>
+  <si>
+    <t>姐妹们，要是还没找到。合适的防晒外套。那速惟的小冰纱防晒外套，可别错过！它有软帽檐，能随意折。下脚调节扣能防风，宽松款不挑身材。吸湿速干很凉快，防晒力也强，海默绿的颜色简约好搭。运动休闲都能穿。</t>
   </si>
   <si>
     <t>Bc2</t>
@@ -191,10 +191,10 @@
     <t>不想穿得臃肿，又想防晒的看过来！速惟小冰纱防晒外套，是个好选择。它防晒力强，水洗也不怕。宽松款式不挑身材，有两侧插袋后开马尾孔。袖子加长防晒到手背。风格简约百搭，运动日常都能穿。水柔原纱面料，越穿越凉快！</t>
   </si>
   <si>
-    <t>怕晒又怕热的朋友，快看看这件速惟。小冰纱防晒外套，软帽檐随意折叠。遮阳轻便，下脚可调节扣。防风效果好，面料水洗后防晒力依旧。吸湿速干，上身清凉不闷汗。藏肉显瘦，下摆抽绳可调节。简约百搭，冰川白颜色超好看！</t>
-  </si>
-  <si>
-    <t>怕晒又不想闷热？选这件速惟小冰纱，防晒外套准没错！它的软帽檐能随意折叠。方便又遮阳，下脚有可调节扣。能有效防风，面料防晒力强。水洗也不怕，还吸湿速干。穿着清凉舒适，宽松版型不挑身材。下摆抽绳可调节。冰川白的颜色，简约又百搭！</t>
+    <t>怕晒又怕热的朋友，快看看这件速惟。小冰纱防晒外套，软帽檐随意折叠。遮阳轻便，下脚可调节扣。防风效果好，面料水洗后防晒力依旧。吸湿速干，上身清凉不闷汗。藏肉显瘦，下摆抽绳可调节。简约百搭，海默绿颜色超好看！</t>
+  </si>
+  <si>
+    <t>怕晒又不想闷热？选这件速惟小冰纱，防晒外套准没错！它的软帽檐能随意折叠。方便又遮阳，下脚有可调节扣。能有效防风，面料防晒力强。水洗也不怕，还吸湿速干。穿着清凉舒适，宽松版型不挑身材。下摆抽绳可调节。海默绿的颜色，简约又百搭！</t>
   </si>
   <si>
     <t>Bc3</t>
@@ -206,10 +206,10 @@
     <t>姐妹们，别再为找不到。好的防晒外套发愁啦！速惟小冰纱防晒外套，了解一下。它宽松显瘦，不挑身材。面料是水柔原纱，凉快又防晒。水洗也不怕，袖子能防晒到手背。还固定得好，动起来不跑位。有插袋，有马尾孔，方便又实用。日常和运动穿都合适，真的很赞！</t>
   </si>
   <si>
-    <t>姐妹们别再纠结，穿啥防晒了！试试速惟小冰纱，防晒外套吧。真的超棒！软帽檐随意折叠。下脚可调节扣防风。面料水洗防晒力不减。吸湿速干不闷汗，还很清凉。宽松版型藏肉显瘦。冰川白简约百搭，运动休闲都能穿！</t>
-  </si>
-  <si>
-    <t>姐妹们，别再为防晒烦恼啦！速惟小冰纱，防晒外套了解一下！它帽檐软能折叠，下脚有调节扣。面料防晒又耐洗，吸湿速干特清凉。还不闷汗，宽松款式很显瘦。冰川白颜色超好看，运动休闲都合适！</t>
+    <t>姐妹们别再纠结，穿啥防晒了！试试速惟小冰纱，防晒外套吧。真的超棒！软帽檐随意折叠。下脚可调节扣防风。面料水洗防晒力不减。吸湿速干不闷汗，还很清凉。宽松版型藏肉显瘦。海默绿简约百搭，运动休闲都能穿！</t>
+  </si>
+  <si>
+    <t>姐妹们，别再为防晒烦恼啦！速惟小冰纱，防晒外套了解一下！它帽檐软能折叠，下脚有调节扣。面料防晒又耐洗，吸湿速干特清凉。还不闷汗，宽松款式很显瘦。海默绿颜色超好看，运动休闲都合适！</t>
   </si>
   <si>
     <t>Bc4</t>
@@ -221,10 +221,10 @@
     <t>今天发现好多人，不懂选防晒外套。我真是服了，普通外套哪行啊。不防晒又不舒服。快来看看我这件。速惟小冰纱防晒外套吧！它有很多贴心设计。两侧插袋能放东西。后开马尾孔。袖子加长能防晒到手背，还固定得好。而且它简约百搭，一件顶八件，真的很不错！</t>
   </si>
   <si>
-    <t>今天居然还有人，不穿防晒外套，我就奇了怪了。这普通衣服，不防晒还闷热。要我说呀，你不如试试我身上。这件速惟小冰纱防晒外套。它软帽檐随意折叠，下脚可调节扣防风。水洗也不影响防晒力。面料吸湿速干，宽松版型藏肉显瘦。还是冰川白的，简约又百搭，运动休闲都能穿。</t>
-  </si>
-  <si>
-    <t>今天发现好多人，都不懂防晒。我真是服了，普通衣服哪能行啊。又不防晒又热，快来看看我这件。速惟小冰纱防晒外套吧！帽檐软能折叠。下脚有调节扣，不怕风钻。面料好，水洗防晒依旧。吸湿速干不闷汗。宽松版型不挑人。冰川白颜色好看，运动休闲都合适。</t>
+    <t>今天居然还有人，不穿防晒外套，我就奇了怪了。这普通衣服，不防晒还闷热。要我说呀，你不如试试我身上。这件速惟小冰纱防晒外套。它软帽檐随意折叠，下脚可调节扣防风。水洗也不影响防晒力。面料吸湿速干，宽松版型藏肉显瘦。还是海默绿的，简约又百搭，运动休闲都能穿。</t>
+  </si>
+  <si>
+    <t>今天发现好多人，都不懂防晒。我真是服了，普通衣服哪能行啊。又不防晒又热，快来看看我这件。速惟小冰纱防晒外套吧！帽檐软能折叠。下脚有调节扣，不怕风钻。面料好，水洗防晒依旧。吸湿速干不闷汗。宽松版型不挑人。海默绿颜色好看，运动休闲都合适。</t>
   </si>
   <si>
     <t>Bc5</t>
@@ -251,10 +251,10 @@
     <t>家长们平时，总为孩子操心。也得对自己好点呀。速惟小冰纱防晒外套，是个不错的选择。它有两侧插袋，后开马尾孔，很贴心。面料水洗防晒力不减，还越穿越凉快。宽松版型不挑身材，袖子加长能防晒到手背。风格简约百搭，运动休闲都合适，快入手吧！</t>
   </si>
   <si>
-    <t>作为家长总操心孩子。也别忘了关爱自己。这件速惟小冰纱，防晒外套。软帽檐可随意折叠。下脚调节扣防风，面料水洗防晒力不减。吸湿速干不闷汗，还很清凉。宽松版型藏肉显瘦。简约百搭，各种运动和日常都能穿。颜色是冰川白，太值了！</t>
-  </si>
-  <si>
-    <t>家长们总担心孩子，也得对自己好点呀。速惟小冰纱防晒外套很不错。软帽檐随意折。下脚有调节扣。面料防晒又耐洗，吸汗速干很凉快。宽松款式不挑身材，简约风格好搭配。运动休闲都合适，冰川白颜色好看，快入手吧！</t>
+    <t>作为家长总操心孩子。也别忘了关爱自己。这件速惟小冰纱，防晒外套。软帽檐可随意折叠。下脚调节扣防风，面料水洗防晒力不减。吸湿速干不闷汗，还很清凉。宽松版型藏肉显瘦。简约百搭，各种运动和日常都能穿。颜色是海默绿，太值了！</t>
+  </si>
+  <si>
+    <t>家长们总担心孩子，也得对自己好点呀。速惟小冰纱防晒外套很不错。软帽檐随意折。下脚有调节扣。面料防晒又耐洗，吸汗速干很凉快。宽松款式不挑身材，简约风格好搭配。运动休闲都合适，海默绿颜色好看，快入手吧！</t>
   </si>
   <si>
     <t>Bc7</t>
@@ -266,52 +266,52 @@
     <t>哈喽姐妹们！如果你们在找防晒外套。那看看速惟的，小冰纱防晒外套吧！这款外套宽松显瘦，适合各种身材。面料好，水洗后防晒力依旧。它设计贴心，有插袋，马尾孔。袖子能防晒手背且不易跑位。无论是运动，还是日常都能穿，别错过！</t>
   </si>
   <si>
-    <t>哈喽姐妹们！要是怕晒又不知道穿啥，速惟小冰纱。防晒外套了解一下！软帽檐随意折叠，下脚可调节扣防风。面料水洗防晒力不减。吸湿速干不闷汗，还很清凉。宽松版型藏肉显瘦。冰川白简约百搭，运动休闲都能穿，赶紧入手吧！</t>
-  </si>
-  <si>
-    <t>哈喽姐妹们！夏天怕晒的看过来！速惟小冰纱防晒外套很不错哟！它软帽檐能折叠，下脚有可调节扣。面料防晒又透气，出汗也不怕。宽松版型不挑身材，冰川白色很简约，跑步、徒步等运动或日常穿都合适，快安排上！</t>
+    <t>哈喽姐妹们，要是怕晒又不知道穿啥。速惟小冰纱，防晒外套了解一下！软帽檐随意折叠。下脚可调节扣防风。面料水洗防晒力不减。吸湿速干不闷汗，还很清凉。宽松版型藏肉显瘦。海默绿简约百搭，运动休闲都能穿，赶紧入手吧！</t>
+  </si>
+  <si>
+    <t>哈喽姐妹们，夏天怕晒的看过来！速惟小冰纱防晒外套很不错哟！它软帽檐能折叠。下脚有可调节扣。面料防晒又透气，出汗也不怕。宽松版型不挑身材，海默绿色很简约。跑步、徒步等运动或日常穿都合适，快安排上！</t>
   </si>
   <si>
     <t>Bc8</t>
   </si>
   <si>
-    <t>这是一件很赞的速惟小冰纱防晒外套，不知道选啥防晒衣的姐妹看过来！它两侧有插袋，方便放东西，还有后开马尾孔，橡皮筋固定，发型不乱。面料水洗防晒力不减，水柔原纱越穿越凉快。宽松版型藏肉显瘦，加长袖子防晒至手背，动起来也不跑位。简约百搭，各种运动和日常休闲都能穿，快入手吧！</t>
+    <t>这是一件很赞的，速惟小冰纱防晒外套。不知道选啥防晒衣的，姐妹看过来！它两侧有插袋，方便放东西。还有后开马尾孔，橡皮筋固定，发型不乱。面料水洗防晒力不减，水柔原纱越穿越凉快。宽松版型藏肉显瘦。加长袖子防晒至手背，动起来也不跑位。简约百搭，各种运动和日常休闲都能穿，快入手吧！</t>
   </si>
   <si>
     <t>速惟小冰纱防晒外套太棒啦！想要高防晒值又百搭的外套，选它就对了！插袋设计实用，马尾孔很贴心。面料防晒又凉快，版型宽松显瘦，袖子加长防护好。简约风格，运动日常都合适。姐妹们别犹豫，赶紧安排上！</t>
   </si>
   <si>
-    <t>这是一件很赞的速惟小冰纱防晒外套！软帽檐能随意折叠，下脚有可调节扣。面料防晒力强，水洗也不怕。吸湿速干，上身清凉不闷汗。宽松版型藏肉显瘦，下摆抽绳可调节。简约百搭，啥场景都能穿，冰川白颜色超好看，快入手吧！</t>
-  </si>
-  <si>
-    <t>速惟小冰纱防晒外套太棒啦！帽檐软能折叠，下脚可调节防风。面料防晒又耐洗，吸湿速干很清凉，不闷汗。宽松版型遮肉，下摆抽绳实用。简约风格，啥都能搭，冰川白很靓。喜欢的赶紧冲！</t>
+    <t>这是一件很赞的速惟小冰纱防晒外套！软帽檐能随意折叠。下脚有可调节扣。面料防晒力强，水洗也不怕。吸湿速干，上身清凉不闷汗。宽松版型藏肉显瘦，下摆抽绳可调节。简约百搭，啥场景都能穿.海默绿颜色超好看，快入手吧！</t>
+  </si>
+  <si>
+    <t>速惟小冰纱防晒外套太棒啦！帽檐软能折叠。下脚可调节防风。面料防晒又耐洗，吸湿速干很清凉，不闷汗。宽松版型遮肉。简约风格，啥都能搭，海默绿很靓。喜欢的赶紧冲！</t>
   </si>
   <si>
     <t>Bd1</t>
   </si>
   <si>
-    <t>南方姐妹看过来，现在下单这款速惟小冰纱防晒外套很划算！它防晒值高，UPF50+，有效阻隔紫外线。软帽檐随意折叠，后开马尾孔，发型不乱。宽松版型藏肉显瘦，下摆带抽绳可调节，简约百搭，运动休闲都能穿！</t>
-  </si>
-  <si>
-    <t>南方的姐妹们，速惟小冰纱防晒外套值得入手！原纱型硬核物理防晒，防晒效果超棒。软帽檐能折叠，还有马尾孔，很贴心。宽松款式不挑身材，下摆抽绳可调节。简约风好搭配，无论是运动还是日常都合适！</t>
-  </si>
-  <si>
-    <t>南方姐妹看过来，现在下单速惟小冰纱防晒外套很划算！它防晒值高，水洗也不减防晒力。宽松版型藏肉显瘦，各种身材都能穿。加长袖子防晒至手背，软帽檐不影响造型，还有马尾孔，很贴心。多种颜色可选，快入手吧！</t>
-  </si>
-  <si>
-    <t>南方的姐妹们，速惟小冰纱防晒外套值得冲！原纱型硬核物理防晒，高倍抗光老。宽松款式不挑人，能藏肉。插袋方便放东西，低领短帽檐好穿戴。袖子长能护到手背，帽子软不影响造型，有马尾孔，很实用，快下单！</t>
+    <t>南方姐妹看过。现在下单这款速惟，小冰纱防晒外套很划算！它防晒值高，UPF50+，有效阻隔紫外线。软帽檐随意折叠。后开马尾孔，发型不乱。宽松版型藏肉显瘦，下摆带抽绳可调节。简约百搭，运动休闲都能穿！</t>
+  </si>
+  <si>
+    <t>南方的姐妹们，速惟小冰纱防晒外套值得入手！原纱型硬核物理防晒，防晒效果超棒。软帽檐能折叠。还有马尾孔，很贴心。宽松款式不挑身材，下摆抽绳可调节。简约风好搭配，无论是运动还是日常都合适！</t>
+  </si>
+  <si>
+    <t>南方姐妹看过来，现在下单速惟，小冰纱防晒外套很划算！它防晒值高，水洗也不减防晒力。宽松版型藏肉显瘦，各种身材都能穿。加长袖子防晒至手背，软帽檐不影响造型。还有马尾孔，很贴心。多种颜色可选，快入手吧！</t>
+  </si>
+  <si>
+    <t>南方的姐妹们，速惟小冰纱防晒外套值得冲！原纱型硬核物理防晒，高倍抗光老。宽松款式不挑人，能藏肉。插袋方便放东西，低领短帽檐好穿戴。袖子长能护到手背，帽子软不影响造型。有马尾孔，很实用，快下单！</t>
   </si>
   <si>
     <t>Bd2</t>
   </si>
   <si>
-    <t>一定要让你们知道速惟小冰纱防晒外套！想要防晒值高又百搭的外套，选它就对了。软帽檐可随意折叠，后开马尾孔，发型不乱。原纱型防晒UPF50+，有效阻隔紫外线。宽松版型藏肉显瘦，下摆带抽绳可调节。现在直播间有活动，快来！</t>
+    <t>一定要让你们知道，速惟小冰纱防晒外套！想要防晒值高又百搭的外套，选它就对了。软帽檐可随意折叠，后开马尾孔，发型不乱。原纱型防晒UPF50+，有效阻隔紫外线。宽松版型藏肉显瘦，下摆带抽绳可调节。点击链接直接购买！</t>
   </si>
   <si>
     <t>速惟小冰纱防晒外套，你不能错过！它防晒值高且百搭。软帽檐折叠方便，还有马尾孔设计。面料原纱型防晒UPF50+，硬核抗光老。宽松版型不挑身材，下摆抽绳可调节。直播间有优惠，赶紧来！</t>
   </si>
   <si>
-    <t>一定要让你们知道速惟小冰纱防晒外套！想要防晒值高又百搭的外套，选它就对了。宽松版型，藏肉显瘦，各种身材都能穿。原纱型硬核物理防晒，水洗也不减防晒力。软帽檐设计不影响造型，还有马尾孔，方便又时尚。两侧插袋能置物，现在活动价很划算，快来看看吧！</t>
+    <t>一定要让你们知道，速惟小冰纱防晒外套！想要防晒值高，又百搭的外套，选它就对了。宽松版型，藏肉显瘦。各种身材都能穿。原纱型硬核物理防晒，水洗也不减防晒力。软帽檐设计不影响造型，还有马尾孔。方便又时尚。两侧插袋能置物，现在活动价很划算，快来看看吧！</t>
   </si>
   <si>
     <t>速惟小冰纱防晒外套，你不能错过！它是高倍防晒的好选择，还很百搭。宽松款式，包容不同身材。面料硬核，水洗防晒力不减。软帽檐加马尾孔设计，时尚又实用。加长袖子防晒至手背，两侧插袋方便置物。现在直播间有优惠，赶紧入手吧！</t>
@@ -320,13 +320,13 @@
     <t>Be1</t>
   </si>
   <si>
-    <t>速惟小冰纱防晒外套太赞了！它有后开马尾孔，软帽檐能随意折叠，还有加长袖子防晒至手背。面料水洗后防晒力不减，出汗不粘身，上身清凉不闷汗，宽松版型藏肉显瘦，冰川白颜色很清新，户外、网球运动必备！</t>
-  </si>
-  <si>
-    <t>速惟这小冰纱防晒外套真不错！软帽檐可折叠，后开马尾孔设计很贴心。面料防晒又耐洗，出汗不粘身，还很清凉。宽松版型，各种身材都能穿。加长袖子能防晒到手背，冰川白颜色好看，快去户外、打网球时穿它吧！</t>
-  </si>
-  <si>
-    <t>速惟小冰纱防晒外套太赞了！原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，下脚可调节扣，设计贴心。宽松版型藏肉显瘦，简约百搭，运动休闲都能穿，让你轻松防晒！</t>
+    <t>速惟小冰纱防晒外套太赞了！它有后开马尾孔，软帽檐能随意折叠，还有加长袖子防晒至手背。面料水洗后防晒力不减，出汗不粘身。上身清凉不闷汗，宽松版型藏肉显瘦。海默绿颜色很清新，户外、网球运动必备！</t>
+  </si>
+  <si>
+    <t>速惟这小冰纱防晒外套真不错！软帽檐可折叠，后开马尾孔设计很贴心。面料防晒又耐洗，出汗不粘身，还很清凉。宽松版型，各种身材都能穿。加长袖子能防晒到手背，海默绿颜色好看。快去户外、打网球时穿它吧！</t>
+  </si>
+  <si>
+    <t>速惟小冰纱防晒外套太赞了！原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，下脚可调节扣，设计贴心。宽松版型藏肉显瘦，简约百搭。运动休闲都能穿，让你轻松防晒！</t>
   </si>
   <si>
     <t>速惟的小冰纱防晒外套真是不错！面料是原纱型硬核物理防晒，防晒值高。有后开马尾孔和可调节下脚扣，很方便。宽松款式不挑身材，简约风好搭配，是件实用的防晒衣！</t>
@@ -335,55 +335,55 @@
     <t>Be2</t>
   </si>
   <si>
-    <t>我的夏天要被速惟承包了，跟着潮流选了这件小冰纱防晒外套。它后开马尾孔，软帽檐可随意折叠，面料水洗防晒力不减。宽松版型藏肉显瘦，加长袖子防晒至手背，动起来也不跑位。一体式冰感包裹，让你清凉一夏。现在下单，优惠多多，快来选购吧！</t>
-  </si>
-  <si>
-    <t>我的夏日必备是速惟小冰纱防晒外套，杨幂同款哦！它有后开马尾孔，发型不乱，软帽檐随意折。面料防晒力强，水洗也不怕。宽松版型，各种身材都能穿。加长袖子，手背也防晒。一体式冰感，清凉舒适。快下单，享优惠，过个清爽夏天！</t>
-  </si>
-  <si>
-    <t>我的夏天要被速惟承包了，这件小冰纱防晒外套太赞了！原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，下脚可调节扣，防风又方便。宽松版型，简约百搭，运动休闲都能穿。现在下单，享受清凉一夏！</t>
-  </si>
-  <si>
-    <t>我的夏日防晒就选速惟小冰纱防晒外套啦！它采用原纱型硬核物理防晒，UPF50+，高倍抗光老。后开马尾孔设计，发型不乱，下脚调节扣防风。宽松款式藏肉显瘦，简约风百搭，赶紧入手吧！</t>
+    <t>我的夏天要被速惟承包了。跟着潮流选了这件，小冰纱防晒外套。它后开马尾孔，软帽檐可随意折叠。面料水洗防晒力不减。宽松版型藏肉显瘦。加长袖子防晒至手背，动起来也不跑位。一体式冰感包裹，让你清凉一夏。现在下单，优惠多多，快来选购吧！</t>
+  </si>
+  <si>
+    <t>我的夏日必备是，速惟小冰纱防晒外套。它有后开马尾孔，发型不乱。软帽檐随意折。面料防晒力强，水洗也不怕。宽松版型，各种身材都能穿。加长袖子，手背也防晒。一体式冰感，清凉舒适。快下单，享优惠，过个清爽夏天！</t>
+  </si>
+  <si>
+    <t>我的夏天要被速惟承包了，这件小冰纱防晒外套太赞了！原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，下脚可调节扣。防风又方便。宽松版型，简约百搭，运动休闲都能穿。现在下单，享受清凉一夏！</t>
+  </si>
+  <si>
+    <t>我的夏日防晒就选，速惟小冰纱防晒外套啦！它采用原纱型硬核物理防晒。UPF50+，高倍抗光老。后开马尾孔设计，发型不乱。下脚调节扣防风。宽松款式藏肉显瘦，简约风百搭，赶紧入手吧！</t>
   </si>
   <si>
     <t>Be3</t>
   </si>
   <si>
-    <t>天气热起来了，真的很需要防晒又清凉的外套，这件速惟小冰纱防晒外套价格实惠，宽松版型藏肉显瘦。它有很多贴心设计，软帽檐可随意折叠，后开马尾孔，发型不凌乱，加长袖子防晒至手背。面料轻盈挺阔，出汗不粘身，水洗也不减防晒力，冰川白的颜色很清新，快入手一件吧！</t>
-  </si>
-  <si>
-    <t>天热了，得有件防晒又凉快的外套才行，速惟小冰纱防晒外套就很不错，价格美丽。它是宽松款，各种身材都能穿。软帽檐防晒不影响造型，还能折叠，帽子后有马尾孔，方便又清爽。加长袖子能防晒到手背，面料好，水洗防晒力也不减。冰川白的颜色，爱了爱了，赶紧安排上！</t>
-  </si>
-  <si>
-    <t>天气热起来了，真得备上防晒外套！速惟这款太赞啦！原纱型防晒UPF50+，有效阻隔紫外线。宽松版型藏肉显瘦，下摆带抽绳可调节。后开马尾孔，下脚可调节扣，运动休闲都合适，简约百搭，1件当8件穿！</t>
-  </si>
-  <si>
-    <t>天热啦，防晒外套得安排上！速惟小冰纱防晒外套，真是不错！UPF50+硬核物理防晒，阻隔紫外线。宽松款式包容身材，下摆抽绳可调节。还有后开马尾孔和下脚可调节扣设计，运动日常都能穿，简约又百搭！</t>
+    <t>天气热起来了，真的很需要防晒又清凉的外套。这件速惟小冰纱防晒外套，价格实惠。宽松版型藏肉显瘦。它有很多贴心设计，软帽檐可随意折叠。后开马尾孔，发型不凌乱。加长袖子防晒至手背。面料轻盈挺阔，出汗不粘身。水洗也不减防晒力，海默绿的颜色很清新，快入手一件吧！</t>
+  </si>
+  <si>
+    <t>天热了，得有件防晒又凉快的外套才行。速惟小冰纱防晒外套就很不错，价格美丽。它是宽松款，各种身材都能穿。软帽檐防晒不影响造型，还能折叠。帽子后有马尾孔，方便又清爽。加长袖子能防晒到手背，面料好。水洗防晒力也不减。海默绿的颜色，爱了爱了，赶紧安排上！</t>
+  </si>
+  <si>
+    <t>天气热起来了，真得备上防晒外套！速惟这款太赞啦！原纱型防晒UPF50+，有效阻隔紫外线。宽松版型藏肉显瘦，下摆带抽绳可调节。后开马尾孔，下脚可调节扣。运动休闲都合适，简约百搭，1件当8件穿！</t>
+  </si>
+  <si>
+    <t>天热啦，防晒外套得安排上！速惟小冰纱防晒外套，真是不错！UPF50+硬核物理防晒，阻隔紫外线。宽松款式包容身材，下摆抽绳可调节。还有后开马尾孔，下脚可调节扣设计。运动日常都能穿，简约又百搭！</t>
   </si>
   <si>
     <t>Be4</t>
   </si>
   <si>
-    <t>为了听到你的一句好穿，我们真的很拼。你们说防晒要到位，我们的小冰纱防晒外套，水洗也不减防晒力。你们说要清凉不闷汗，面料轻盈挺阔，出汗不粘身。宽松版型，藏肉显瘦，能穿到多种身材。软帽檐设计，防晒又时尚，还有马尾孔，发型不乱。冰川白的颜色，清新百搭。</t>
-  </si>
-  <si>
-    <t>为了让你满意，我们全力以赴。你们说想要防晒又舒适，我们的速惟小冰纱防晒外套来啦！面料防晒力强，水洗也不怕。出汗不粘身，上身清凉不闷汗。宽松款式，各种身材都能穿。软帽檐加马尾孔设计，时尚又实用。袖子加长，防晒至手背。冰川白颜色，好看又好搭。</t>
-  </si>
-  <si>
-    <t>为了听到你的一句好穿，我们真的很拼。你们说想要防晒值高的外套，我们采用原纱型防晒UPF50+，有效阻隔紫外线。你们说想要方便运动，我们设计了后开马尾孔，下脚可调节扣。宽松版型，藏肉显瘦，一件当八件穿，运动休闲都合适。</t>
-  </si>
-  <si>
-    <t>为了让你满意，我们全力以赴。你们想要高防晒的百搭外套，我们的原纱型防晒UPF50+满足需求。你们说运动时要方便，我们有后开马尾孔和可调节下脚扣。宽松款式，各种身材都能穿，简约风格，多种场合都适配。</t>
+    <t>为了听到你的一句好穿，我们真的很拼。你们说防晒要到位，我们的小冰纱防晒外套，水洗也不减防晒力。你们说要清凉不闷汗，面料轻盈挺阔，出汗不粘身。宽松版型，藏肉显瘦。能穿到多种身材。软帽檐设计，防晒又时尚。还有马尾孔，发型不乱。海默绿的颜色，清新百搭。</t>
+  </si>
+  <si>
+    <t>为了让你满意，我们全力以赴。你们说想要防晒又舒适，我们的速惟小冰纱，防晒外套来啦！面料防晒力强，水洗也不怕。出汗不粘身，上身清凉不闷汗。宽松款式，各种身材都能穿。软帽檐加马尾孔设计，时尚又实用。袖子加长，防晒至手背。海默绿颜色，好看又好搭。</t>
+  </si>
+  <si>
+    <t>为了听到你的一句好穿，我们真的很拼。你们说想要防晒值高的外套，我们采用原纱型防晒UPF50+。有效阻隔紫外线。你们说想要方便运动，我们设计了后开马尾孔。下脚可调节扣。宽松版型，藏肉显瘦。一件当八件穿，运动休闲都合适。</t>
+  </si>
+  <si>
+    <t>为了让你满意，我们全力以赴。你们想要高防晒的百搭外套，我们的原纱型防晒UPF50+满足需求。你们说运动时要方便，我们有后开马尾孔和可调节下脚扣。宽松款式，各种身材都能穿。简约风格，多种场合都适配。</t>
   </si>
   <si>
     <t>Be5</t>
   </si>
   <si>
-    <t>速惟小冰纱防晒外套，谁能拒绝啊！之前说想要不闷汗还清凉的，这不就来了！软帽檐随意折叠，后开马尾孔，发型不乱。加长袖子防晒至手背，动起来也没问题。水洗防晒力不减，出汗不粘身，宽松版型藏肉显瘦。冰川白很清新，下单有惊喜，快来！</t>
-  </si>
-  <si>
-    <t>速惟小冰纱防晒外套，太赞了！你们想要的清凉不闷汗，它做到了！软帽檐好折叠，后有马尾孔，发型保持好。袖子加长护手背，活动自如。面料防晒又耐洗，不粘身。宽松款式很显瘦，冰川白好看。现在下单享优惠，别错过！</t>
+    <t>速惟小冰纱防晒外套，谁能拒绝啊！之前说想要不闷汗还清凉的，这不就来了！软帽檐随意折叠，后开马尾孔，发型不乱。加长袖子防晒至手背，动起来也没问题。水洗防晒力不减。出汗不粘身。宽松版型藏肉显瘦。海默绿很清新，下单有惊喜，快来！</t>
+  </si>
+  <si>
+    <t>速惟小冰纱防晒外套，太赞了！你们想要的清凉不闷汗，它做到了！软帽檐好折叠，后有马尾孔，发型保持好。袖子加长护手背，活动自如。面料防晒又耐洗，不粘身。宽松款式很显瘦，海默绿好看。现在下单享优惠，别错过！</t>
   </si>
   <si>
     <t>速惟小冰纱防晒外套，谁能拒绝啊！之前你们想要高防晒值的外套，这不就来了！UPF50+，有效阻隔紫外线。后开马尾孔，下脚可调节扣，宽松版型藏肉显瘦，简约百搭，运动休闲都能穿，下单有惊喜，快来！</t>
@@ -395,10 +395,10 @@
     <t>Be6</t>
   </si>
   <si>
-    <t>哎呀，这天儿太阳这么大，你咋不防晒呢？我可有速惟小冰纱防晒外套，后开马尾孔，软帽檐随意折叠，还有加长袖子能防晒到手背呢！面料水洗防晒力也不减，宽松版型藏肉显瘦，出汗不粘身，还很清凉，冰川白超好看，快来我直播间，这个价就能拿下！</t>
-  </si>
-  <si>
-    <t>哟，这大太阳的，你不怕晒啊？我穿速惟小冰纱防晒外套就不怕！它有后开马尾孔，软帽檐能折叠，袖子加长防晒到手背，面料防晒又清凉，出汗不粘身，宽松版型显瘦，颜色是冰川白，特好看！在我直播间有活动，这价格太划算了，赶紧来！</t>
+    <t>哎呀，这天儿太阳这么大，你咋不防晒呢？我可有速惟小冰纱防晒外套，后开马尾孔，软帽檐随意折叠，还有加长袖子能防晒到手背呢！面料水洗防晒力也不减，宽松版型藏肉显瘦，出汗不粘身，还很清凉，海默绿超好看，快来我直播间，这个价就能拿下！</t>
+  </si>
+  <si>
+    <t>哟，这大太阳的，你不怕晒啊？我穿速惟小冰纱防晒外套就不怕！它有后开马尾孔，软帽檐能折叠，袖子加长防晒到手背，面料防晒又清凉，出汗不粘身，宽松版型显瘦，颜色是海默绿，特好看！在我直播间有活动，这价格太划算了，赶紧来！</t>
   </si>
   <si>
     <t>哎呀，这天儿太阳这么大，你不防晒吗？我可有速惟小冰纱防晒外套呢！原纱型防晒UPF50+，有效阻隔紫外线。后开马尾孔，下脚可调节扣，宽松版型藏肉显瘦，简约百搭，运动休闲都能穿。在我直播间有活动，快去吧！</t>
@@ -410,10 +410,10 @@
     <t>Be7</t>
   </si>
   <si>
-    <t>今天看到个差评说速惟小冰纱防晒外套好是好，就是价格有点贵。现在老板放话，点进直播间的朋友，价格优惠，买就对了！这外套防晒力强，水洗也不怕，宽松版型藏肉显瘦，软帽檐可折叠，还有马尾孔，袖子防晒至手背，颜色是冰川白，上身清凉不闷汗，户外、网球运动都能穿。</t>
-  </si>
-  <si>
-    <t>有人说速惟小冰纱防晒外套不错，就是价格不太美丽。现在好了，直播间有优惠！这款外套防晒效果好，水洗也不影响，宽松款式不挑身材。软帽檐能折叠不变形，有马尾孔，袖子能防晒到手背，出汗不粘身，颜色是冰川白，很适合户外、网球运动时穿，清凉又舒适。</t>
+    <t>今天看到个差评说速惟小冰纱防晒外套好是好，就是价格有点贵。现在老板放话，点进直播间的朋友，价格优惠，买就对了！这外套防晒力强，水洗也不怕，宽松版型藏肉显瘦，软帽檐可折叠，还有马尾孔，袖子防晒至手背，颜色是海默绿，上身清凉不闷汗，户外、网球运动都能穿。</t>
+  </si>
+  <si>
+    <t>有人说速惟小冰纱防晒外套不错，就是价格不太美丽。现在好了，直播间有优惠！这款外套防晒效果好，水洗也不影响，宽松款式不挑身材。软帽檐能折叠不变形，有马尾孔，袖子能防晒到手背，出汗不粘身，颜色是海默绿，很适合户外、网球运动时穿，清凉又舒适。</t>
   </si>
   <si>
     <t>今天收到个反馈说速惟小冰纱防晒外套确实不错，就是担心价格贵。现在老板放话，点进直播间的朋友，价格美丽，买就对了！这外套防晒值高又百搭，宽松版型藏肉显瘦，跑步、户外等运动或日常休闲都能穿，后开马尾孔，下脚可调节扣，防晒又方便，真的不心动吗？</t>
@@ -458,10 +458,10 @@
     <t>Be10</t>
   </si>
   <si>
-    <t>姐妹们，我发现了防晒神器，就是速惟的小冰纱防晒外套！它有后开马尾孔，软帽檐能随意折叠，袖子加长能防晒到手背。面料水洗后防晒力不减，出汗不粘身，上身清凉不闷汗。宽松版型藏肉显瘦，冰川白的颜色也很清新，爱了！</t>
-  </si>
-  <si>
-    <t>姐妹们，速惟的小冰纱防晒外套真是太棒了！它是肌肤的“遮阳伞、保护壳”，能挡住紫外线，让你体感冰凉。软帽檐设计时尚又实用，后开马尾孔保持发型不乱。面料轻盈挺阔，水洗防晒力依旧，宽松版型适合各种身材。冰川白的颜色，清新又好看！</t>
+    <t>姐妹们，我发现了防晒神器，就是速惟的小冰纱防晒外套！它有后开马尾孔，软帽檐能随意折叠，袖子加长能防晒到手背。面料水洗后防晒力不减，出汗不粘身，上身清凉不闷汗。宽松版型藏肉显瘦，海默绿的颜色也很清新，爱了！</t>
+  </si>
+  <si>
+    <t>姐妹们，速惟的小冰纱防晒外套真是太棒了！它是肌肤的“遮阳伞、保护壳”，能挡住紫外线，让你体感冰凉。软帽檐设计时尚又实用，后开马尾孔保持发型不乱。面料轻盈挺阔，水洗防晒力依旧，宽松版型适合各种身材。海默绿的颜色，清新又好看！</t>
   </si>
   <si>
     <t>姐妹们，我发现了一件超棒的防晒外套，就是速惟的小冰纱防晒外套！它是原纱型防晒，UPF50+，能有效阻隔紫外线。后开马尾孔，下脚可调节扣，版型宽松藏肉显瘦，简约百搭，运动休闲都能穿，简直是防晒必备！</t>
@@ -1789,8 +1789,8 @@
   <sheetPr/>
   <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
